--- a/public/app-assets/ImportSamples/2-FloorsSample.xlsx
+++ b/public/app-assets/ImportSamples/2-FloorsSample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>name *</t>
   </si>
@@ -30,175 +30,178 @@
     <t>Floor 1</t>
   </si>
   <si>
-    <t>4441F</t>
+    <t>1F</t>
   </si>
   <si>
     <t>Floor 2</t>
   </si>
   <si>
-    <t>4442F</t>
+    <t>2F</t>
   </si>
   <si>
     <t>Floor 3</t>
   </si>
   <si>
-    <t>4443F</t>
+    <t>3F</t>
   </si>
   <si>
     <t>Floor 4</t>
   </si>
   <si>
-    <t>4444F</t>
+    <t>4F</t>
   </si>
   <si>
     <t>Floor 5</t>
   </si>
   <si>
-    <t>4445F</t>
+    <t>5F</t>
   </si>
   <si>
     <t>Floor 6</t>
   </si>
   <si>
-    <t>4446F</t>
+    <t>6F</t>
   </si>
   <si>
     <t>Floor 7</t>
   </si>
   <si>
-    <t>4447F</t>
+    <t>7F</t>
   </si>
   <si>
     <t>Floor 8</t>
   </si>
   <si>
-    <t>4448F</t>
+    <t>8F</t>
   </si>
   <si>
     <t>Floor 9</t>
   </si>
   <si>
-    <t>4449F</t>
+    <t>9F</t>
   </si>
   <si>
     <t>Floor 10</t>
   </si>
   <si>
-    <t>4450F</t>
+    <t>10F</t>
   </si>
   <si>
     <t>Floor 11</t>
   </si>
   <si>
-    <t>4451F</t>
+    <t>11F</t>
   </si>
   <si>
     <t>Floor 12</t>
   </si>
   <si>
-    <t>4452F</t>
+    <t>12F</t>
   </si>
   <si>
     <t>Floor 13</t>
   </si>
   <si>
-    <t>4453F</t>
+    <t>13F</t>
   </si>
   <si>
     <t>Floor 14</t>
   </si>
   <si>
-    <t>4454F</t>
+    <t>14F</t>
   </si>
   <si>
     <t>Floor 15</t>
   </si>
   <si>
-    <t>4455F</t>
+    <t>15F</t>
   </si>
   <si>
     <t>Floor 16</t>
   </si>
   <si>
-    <t>4456F</t>
+    <t>16F</t>
   </si>
   <si>
     <t>Floor 17</t>
   </si>
   <si>
-    <t>4457F</t>
+    <t>17F</t>
   </si>
   <si>
     <t>Floor 18</t>
   </si>
   <si>
-    <t>4458F</t>
+    <t>18F</t>
   </si>
   <si>
     <t>Floor 19</t>
   </si>
   <si>
-    <t>4459F</t>
+    <t>19F</t>
   </si>
   <si>
     <t>Floor 20</t>
   </si>
   <si>
-    <t>4460F</t>
+    <t>20F</t>
   </si>
   <si>
     <t>Floor 21</t>
   </si>
   <si>
-    <t>4461F</t>
+    <t>21F</t>
   </si>
   <si>
     <t>Floor 22</t>
   </si>
   <si>
-    <t>4462F</t>
+    <t>22F</t>
   </si>
   <si>
     <t>Floor 23</t>
   </si>
   <si>
-    <t>4463F</t>
+    <t>23F</t>
   </si>
   <si>
     <t>Floor 24</t>
   </si>
   <si>
-    <t>4464F</t>
+    <t>24F</t>
   </si>
   <si>
     <t>Floor 25</t>
   </si>
   <si>
-    <t>4465F</t>
+    <t>25F</t>
   </si>
   <si>
     <t>Floor 26</t>
   </si>
   <si>
-    <t>4466F</t>
+    <t>26F</t>
   </si>
   <si>
     <t>Floor 27</t>
   </si>
   <si>
-    <t>4467F</t>
+    <t>27F</t>
   </si>
   <si>
     <t>Floor 28</t>
   </si>
   <si>
-    <t>4468F</t>
+    <t>28F</t>
   </si>
   <si>
     <t>Floor 29</t>
   </si>
   <si>
-    <t>4469F</t>
+    <t>29F</t>
+  </si>
+  <si>
+    <t>GF</t>
   </si>
 </sst>
 </file>
@@ -206,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -228,9 +231,83 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,43 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -289,6 +329,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -299,74 +369,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,19 +384,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,31 +522,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,127 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,25 +578,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -610,6 +604,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,6 +643,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -648,177 +675,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,10 +1186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1524,6 +1527,17 @@
       </c>
       <c r="C30" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/public/app-assets/ImportSamples/2-FloorsSample.xlsx
+++ b/public/app-assets/ImportSamples/2-FloorsSample.xlsx
@@ -24,7 +24,7 @@
     <t>floor_area *</t>
   </si>
   <si>
-    <t>short_label *</t>
+    <t>floor_short_label *</t>
   </si>
   <si>
     <t>Floor 1</t>
@@ -232,6 +232,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -239,25 +246,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,6 +276,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -277,21 +336,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -299,77 +367,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,17 +578,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,24 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -637,15 +613,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +634,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -675,153 +660,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,14 +1189,14 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.7" customWidth="1"/>
     <col min="2" max="2" width="11.1" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1" customWidth="1"/>
+    <col min="3" max="3" width="17.2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
